--- a/Course 1/DAAD_I-StaR_Workshop program.xlsx
+++ b/Course 1/DAAD_I-StaR_Workshop program.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\PhD_work\courses\I-StaR\Course 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E92E8B-5EFF-44C1-BB5D-B49E4AC9EFDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAC18E9-8B25-45A6-BCC7-FF2CDC0EF21B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-132" yWindow="-132" windowWidth="23304" windowHeight="12624" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Course Outline" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
   <si>
     <t xml:space="preserve">Introduction to concepts of Data Management (Folders, folder structure) </t>
   </si>
@@ -69,9 +69,6 @@
     <t>K Mwai</t>
   </si>
   <si>
-    <t>DAY 1: 3rd May 2021</t>
-  </si>
-  <si>
     <t>Data Wrangling</t>
   </si>
   <si>
@@ -99,12 +96,6 @@
     <t xml:space="preserve">Reproducible Research in R and wrap up. </t>
   </si>
   <si>
-    <t>DAY 2: 4th May 2021</t>
-  </si>
-  <si>
-    <t>DAY 3: 5th May 2021</t>
-  </si>
-  <si>
     <t>DAY 4: 6th May 2021</t>
   </si>
   <si>
@@ -132,9 +123,6 @@
     <t>Topic</t>
   </si>
   <si>
-    <t>A Kamau/K Mwai</t>
-  </si>
-  <si>
     <t>M Otiende/A Kamau</t>
   </si>
   <si>
@@ -193,6 +181,24 @@
   </si>
   <si>
     <t xml:space="preserve">Recap day 4 - Data Visualization </t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Alice Kamau</t>
+  </si>
+  <si>
+    <t>Sammy</t>
+  </si>
+  <si>
+    <t>DAY 1 Mon: 3rd May 2021</t>
+  </si>
+  <si>
+    <t>DAY 2 Tue: 4th May 2021</t>
+  </si>
+  <si>
+    <t>DAY 3 Wed: 5th May 2021</t>
   </si>
 </sst>
 </file>
@@ -474,12 +480,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -499,6 +499,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -817,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -833,10 +839,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
-      <c r="B1" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="17"/>
+      <c r="B1" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="24"/>
       <c r="D1" s="10" t="s">
         <v>10</v>
       </c>
@@ -844,27 +850,27 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
+      <c r="A2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
@@ -872,9 +878,9 @@
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>0</v>
@@ -885,7 +891,7 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -897,11 +903,11 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
@@ -910,9 +916,12 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="3"/>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
@@ -923,9 +932,12 @@
         <v>13</v>
       </c>
       <c r="E7" s="3"/>
+      <c r="F7" s="14" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="20"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -945,44 +957,50 @@
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
+      <c r="A10" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E11" s="3"/>
+      <c r="F11" s="14" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,30 +1009,33 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="3"/>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="20"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E15" s="5"/>
     </row>
@@ -1025,45 +1046,48 @@
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
+      <c r="F19" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
@@ -1072,79 +1096,82 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="19"/>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="17"/>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="20"/>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="18"/>
       <c r="B22" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="17"/>
       <c r="B26" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="17"/>
       <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
@@ -1153,79 +1180,85 @@
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="17"/>
       <c r="B28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="20"/>
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="18"/>
       <c r="B29" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="22"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="20"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="17"/>
       <c r="B32" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="17"/>
       <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
+      <c r="F33" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="17"/>
       <c r="B34" s="1" t="s">
         <v>7</v>
       </c>
@@ -1235,45 +1268,45 @@
       <c r="D34" s="1"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="17"/>
       <c r="B35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="20"/>
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="18"/>
       <c r="B36" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B24:E24"/>
     <mergeCell ref="A31:A36"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B24:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Course 1/DAAD_I-StaR_Workshop program.xlsx
+++ b/Course 1/DAAD_I-StaR_Workshop program.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\PhD_work\courses\I-StaR\Course 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAC18E9-8B25-45A6-BCC7-FF2CDC0EF21B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679650F0-25F9-4D26-8366-779185F1558A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-132" yWindow="-132" windowWidth="23304" windowHeight="12624" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Course Outline" sheetId="1" r:id="rId1"/>
@@ -174,9 +174,6 @@
     <t>Data visualization with ggplot - box and violin, scatter and line, ….</t>
   </si>
   <si>
-    <t>Exploratory analysis of continuous data - ttest,Anova</t>
-  </si>
-  <si>
     <t>Exploratory analysis of continuous data - Correlations</t>
   </si>
   <si>
@@ -199,6 +196,9 @@
   </si>
   <si>
     <t>DAY 3 Wed: 5th May 2021</t>
+  </si>
+  <si>
+    <t>Exploratory analysis of continuous data - EDA, ttest,Anova</t>
   </si>
 </sst>
 </file>
@@ -480,6 +480,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -499,12 +505,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -823,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -839,10 +839,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="24"/>
+      <c r="C1" s="17"/>
       <c r="D1" s="10" t="s">
         <v>10</v>
       </c>
@@ -854,18 +854,18 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="21" t="s">
+      <c r="A2" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
@@ -878,7 +878,7 @@
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
@@ -891,7 +891,7 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -907,7 +907,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
@@ -917,11 +917,11 @@
       <c r="D6" s="1"/>
       <c r="E6" s="3"/>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
@@ -933,11 +933,11 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="18"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -957,18 +957,18 @@
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
@@ -980,11 +980,11 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
@@ -992,7 +992,7 @@
         <v>42</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="14" t="s">
@@ -1000,7 +1000,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
@@ -1014,7 +1014,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
@@ -1022,12 +1022,12 @@
         <v>43</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="18"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="4" t="s">
         <v>41</v>
       </c>
@@ -1047,18 +1047,18 @@
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="19" t="s">
+      <c r="A17" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
@@ -1071,7 +1071,7 @@
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
@@ -1083,11 +1083,11 @@
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
@@ -1101,7 +1101,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="17"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="1" t="s">
         <v>40</v>
       </c>
@@ -1114,7 +1114,7 @@
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="18"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="4" t="s">
         <v>41</v>
       </c>
@@ -1134,18 +1134,18 @@
       <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
@@ -1158,7 +1158,7 @@
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="1" t="s">
         <v>6</v>
       </c>
@@ -1171,7 +1171,7 @@
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
@@ -1185,12 +1185,12 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>27</v>
@@ -1198,12 +1198,12 @@
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="18"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>27</v>
@@ -1218,23 +1218,23 @@
       <c r="E30" s="7"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="22"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>39</v>
@@ -1242,7 +1242,7 @@
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
@@ -1254,11 +1254,11 @@
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="1" t="s">
         <v>7</v>
       </c>
@@ -1269,7 +1269,7 @@
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="1" t="s">
         <v>8</v>
       </c>
@@ -1282,7 +1282,7 @@
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="18"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="4" t="s">
         <v>9</v>
       </c>
@@ -1296,17 +1296,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B24:E24"/>
     <mergeCell ref="A31:A36"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B24:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
